--- a/mcmaster_excel/Phillips_Rounded_Head_Screw_Assortments.xlsx
+++ b/mcmaster_excel/Phillips_Rounded_Head_Screw_Assortments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,106 +434,106 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Numberof Pieces</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Sizes Included</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ContainerType</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Inch</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>Numberof Pieces</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sizes Included</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SpecificationsMet</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ContainerType</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1,200</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4-40 to 10-32 in 1/4" to 3/4" Lengths</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Metal Box</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93175A212</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$113.38</t>
-        </is>
-      </c>
+          <t>Inch</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>1,200</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4-40 to 10-32 in 1/4" to 3/4" Lengths</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Metal Box</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93175A212</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>$113.38</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
@@ -544,36 +544,54 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1,500</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M3 to M6 in 6 mm to 20 mm Lengths</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Metal Box</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92020A116</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>153.19</t>
-        </is>
-      </c>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>M3 to M6 in 6 mm to 20 mm Lengths</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Metal Box</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92020A116</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>153.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
